--- a/data/Data_Model.xlsx
+++ b/data/Data_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Webapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F977A8F-31AC-421E-8BAE-E255930C789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CA30B4-1B97-4031-8E55-D67151DC51DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
+    <workbookView xWindow="8280" yWindow="4485" windowWidth="28800" windowHeight="15225" activeTab="3" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
   </bookViews>
   <sheets>
     <sheet name="weather forecast" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="99">
   <si>
     <t>ECMWF</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>US</t>
-  </si>
-  <si>
-    <t>has technical specifications and coordinates, but won't download them when exported as list</t>
   </si>
   <si>
     <t>worldwide</t>
@@ -330,12 +327,6 @@
     </r>
   </si>
   <si>
-    <t>1940 - present</t>
-  </si>
-  <si>
-    <t>at WPP level, but data only for windparks &gt; 100 MW ("Actual net generation output (MW) per market time unit and per generation unit of 100 MW or more installed generation capacity."), exportable with FTP Client software FileZilla (https://transparency.entsoe.eu/content/static_content/Static%20content/knowledge%20base/SFTP-Transparency_Docs.html), 12/2014 - present</t>
-  </si>
-  <si>
     <t>"[The EIC] key hasn't been reviewed by the community and is actually only here as a test to see how is it possible to add such codes to the OSM dataset." (https://wiki.openstreetmap.org/wiki/Key:ref:EU:ENTSOE_EIC), coordinates</t>
   </si>
   <si>
@@ -354,9 +345,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>yes, but can't download them</t>
-  </si>
-  <si>
     <t>ask for download of coord. And technic. Spec.</t>
   </si>
   <si>
@@ -418,13 +406,19 @@
   </si>
   <si>
     <t>no (latest version 2018)</t>
+  </si>
+  <si>
+    <t>1940 - present, simple, because 100 m u and v component selectable (https://cds.climate.copernicus.eu/datasets/reanalysis-era5-single-levels?tab=download) as used in forecast, sub-region extraction available before download</t>
+  </si>
+  <si>
+    <t>at WPP level, but data only for windparks &gt; 100 MW ("Actual net generation output (MW) per market time unit and per generation unit of 100 MW or more installed generation capacity."), exportable with FTP Client software FileZilla (https://transparency.entsoe.eu/content/static_content/Static%20content/knowledge%20base/SFTP-Transparency_Docs.html, Hostname: sftp-transparency.entsoe.eu, Port: 22), 12/2014 - present</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,8 +448,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +469,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -478,9 +484,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -500,11 +507,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1068,7 +1076,7 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1079,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1093,16 +1101,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1130,10 +1138,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1162,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1171,7 @@
     <col min="2" max="2" width="51.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1194,27 +1202,27 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1222,13 +1230,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1237,16 +1245,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1267,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0F533D-B971-4C16-A2B7-1B4CD8F3BF07}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,19 +1307,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1321,26 +1329,26 @@
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1350,27 +1358,27 @@
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>76</v>
+      <c r="E3" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1384,22 +1392,22 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,22 +1417,22 @@
       <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
@@ -1434,56 +1442,54 @@
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>79</v>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1491,19 +1497,19 @@
         <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>37</v>
@@ -1517,71 +1523,71 @@
         <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1608,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C401C7E-DA12-4B53-A03F-4F3FE27EAC06}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,36 +1647,36 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +1695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C043191A-5493-4900-BD5E-C6179EEACEA1}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1722,50 +1728,50 @@
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Model.xlsx
+++ b/data/Data_Model.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Webapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CA30B4-1B97-4031-8E55-D67151DC51DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527A268A-B7E9-4776-AF2C-FFA5C516C607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="4485" windowWidth="28800" windowHeight="15225" activeTab="3" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
+    <workbookView minimized="1" xWindow="-90" yWindow="120" windowWidth="24180" windowHeight="15250" activeTab="1" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
   </bookViews>
   <sheets>
     <sheet name="weather forecast" sheetId="1" r:id="rId1"/>
     <sheet name="weather history" sheetId="4" r:id="rId2"/>
     <sheet name="WPPs" sheetId="2" r:id="rId3"/>
     <sheet name="production history" sheetId="3" r:id="rId4"/>
-    <sheet name="boundaries" sheetId="5" r:id="rId5"/>
+    <sheet name="Turbine Types" sheetId="6" r:id="rId5"/>
+    <sheet name="boundaries" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="109">
   <si>
     <t>ECMWF</t>
   </si>
@@ -96,9 +97,6 @@
     <t>Costs</t>
   </si>
   <si>
-    <t>https://wiki.openstreetmap.org/wiki/Tag%3Apower%3Dgenerator</t>
-  </si>
-  <si>
     <t>power plants as power:generators, not power:plants; lots of attributes, but for the fewest data exist</t>
   </si>
   <si>
@@ -114,9 +112,6 @@
     <t>The Wind Power</t>
   </si>
   <si>
-    <t>https://www.thewindpower.net/premium_access_en.php (trying out) or https://www.thewindpower.net/premium_access_en.php</t>
-  </si>
-  <si>
     <t>Global Power Plant Database</t>
   </si>
   <si>
@@ -172,9 +167,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ecmwf.int/en/forecasts/dataset/ecmwf-reanalysis-v5 </t>
-  </si>
-  <si>
-    <t>(request required)</t>
   </si>
   <si>
     <t xml:space="preserve">https://disc.gsfc.nasa.gov/datasets?project=MERRA-2 </t>
@@ -339,9 +331,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>premium access until 04/12/24, doesn't enable to download data, only read; this would require global package für 1250 € (without updates); has the number of turbines per production unit --&gt; reconstruction of generation units</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -363,9 +352,6 @@
     <t>yes, "network of researchers seeking to develop collaborative informational resources on fossil fuel impacts and alternatives.", "Global Energy Monitor researchers perform data validation by comparing our dataset against proprietary and public data such as S&amp;P Global’s World Energy Power Plant database and the World Resource Institute’s Global Power Plant Database, as well as various company and government sources."</t>
   </si>
   <si>
-    <t>no bulk download, &gt; 100 kW</t>
-  </si>
-  <si>
     <t>validated / not public?</t>
   </si>
   <si>
@@ -408,17 +394,63 @@
     <t>no (latest version 2018)</t>
   </si>
   <si>
-    <t>1940 - present, simple, because 100 m u and v component selectable (https://cds.climate.copernicus.eu/datasets/reanalysis-era5-single-levels?tab=download) as used in forecast, sub-region extraction available before download</t>
-  </si>
-  <si>
-    <t>at WPP level, but data only for windparks &gt; 100 MW ("Actual net generation output (MW) per market time unit and per generation unit of 100 MW or more installed generation capacity."), exportable with FTP Client software FileZilla (https://transparency.entsoe.eu/content/static_content/Static%20content/knowledge%20base/SFTP-Transparency_Docs.html, Hostname: sftp-transparency.entsoe.eu, Port: 22), 12/2014 - present</t>
+    <t>1940 - present, simple, because 100 m u and v component selectable (https://cds.climate.copernicus.eu/datasets/reanalysis-era5-single-levels?tab=download) as used in forecast, sub-region extraction available, download or API available (request required, e. g. for API key required)</t>
+  </si>
+  <si>
+    <t>at WPP level, but data only for windparks &gt; 100 MW ("Actual net generation output (MW) per market time unit and per generation unit of 100 MW or more installed generation capacity."), exportable with FTP Client software FileZilla (https://transparency.entsoe.eu/content/static_content/Static%20content/knowledge%20base/SFTP-Transparency_Docs.html, Hostname: sftp-transparency.entsoe.eu, Port: 22), 12/2014 - present,
+only countries uploading wind energy data are 01/2015: BE, DK, GB. 06/2019: BE, DK, GB. 10/2024: BE, DK, FR, IT</t>
+  </si>
+  <si>
+    <t>no bulk download, P &gt; 100 kW</t>
+  </si>
+  <si>
+    <t>only for DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wiki.openstreetmap.org/wiki/Tag%3Apower%3Dgenerator </t>
+  </si>
+  <si>
+    <t>Hans-Ertel-Zentrum für Wetterforschung (HErZ), Deutscher Wetterdienst (DWD)</t>
+  </si>
+  <si>
+    <t>European Centre for Medium-Range Weather Forecasts (ECMWF) in the framework of Copernicus Climate Change Service (C3S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NASA (National Aeronautics and Space Administration) via the Global Modeling and Assimilation Office (GMAO) </t>
+  </si>
+  <si>
+    <t>National Centers for Environmental Prediction (NCEP) and National Center for Atmospheric Research (NCAR)</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thewindpower.net/store_continent_en.php?id_zone=1001 </t>
+  </si>
+  <si>
+    <t>premium access until 04/12/24, doesn't enable to download data, only read; this would require global package für 800 € (without updates); has the number of turbines per production unit --&gt; reconstruction of generation units, used by CDS to calculate capacity factors (https://cds.climate.copernicus.eu/datasets/sis-energy-pecd?tab=overview)</t>
+  </si>
+  <si>
+    <t>Open Energy Platform</t>
+  </si>
+  <si>
+    <t>general list with turbine types and associated specifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openenergyplatform.org/dataedit/view/supply/wind_turbine_library </t>
+  </si>
+  <si>
+    <t>data from WPP sensors</t>
+  </si>
+  <si>
+    <t>for yaw, pitch, stall control, WPPs measure wind speed and direction --&gt; difficult ot obtain, not required, because good weather data available, not useful, because arbitrary locations should be selectable, formerly sensors behind nacelles --&gt; lower wind speed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +487,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -475,12 +515,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -489,7 +540,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -510,13 +561,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -647,6 +704,9 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -661,28 +721,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4F12E0D7-3F7A-4487-8316-91D8EC14F3DE}" name="Table7" displayName="Table7" ref="A1:E5" totalsRowShown="0" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4F12E0D7-3F7A-4487-8316-91D8EC14F3DE}" name="Table7" displayName="Table7" ref="A1:E5" totalsRowShown="0" dataDxfId="38">
   <autoFilter ref="A1:E5" xr:uid="{4F12E0D7-3F7A-4487-8316-91D8EC14F3DE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{763B3611-6A05-4496-9549-28A9C3FF5F24}" name="Provider" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{DEB2246F-248B-49E0-9C7A-770975C5608B}" name="Link" dataDxfId="35" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{09CDAAEA-1CF4-4A9A-A8FC-9A9CF0E41FB1}" name="Costs" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{FE1B169A-0800-46A4-813B-6C6FDE081AA2}" name="Area" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{3AEBE993-BA1D-4FC9-A845-588AF4BDBC18}" name="Description" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{763B3611-6A05-4496-9549-28A9C3FF5F24}" name="Provider" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{DEB2246F-248B-49E0-9C7A-770975C5608B}" name="Link" dataDxfId="36" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{09CDAAEA-1CF4-4A9A-A8FC-9A9CF0E41FB1}" name="Costs" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{FE1B169A-0800-46A4-813B-6C6FDE081AA2}" name="Area" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{3AEBE993-BA1D-4FC9-A845-588AF4BDBC18}" name="Description" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D2EAB288-5B2A-41B1-8B80-D0AD72606228}" name="Table6" displayName="Table6" ref="A1:E5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:E5" xr:uid="{D2EAB288-5B2A-41B1-8B80-D0AD72606228}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A15C01DA-CA22-47E7-B80F-E804FFA3B0A3}" name="Provider" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{EBCD32C8-5E9A-42BD-9633-EC1421AA1D88}" name="Link" dataDxfId="28" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{A8CFEFEC-060D-4296-A172-5F2F67680987}" name="Costs" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{A365E008-1A8F-40FA-A9F4-EDBEF77C474C}" name="Area" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{8DDE3FAB-CEAF-4DFA-93F0-0A311F6751AC}" name="Description" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D2EAB288-5B2A-41B1-8B80-D0AD72606228}" name="Table6" displayName="Table6" ref="A1:F6" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:F6" xr:uid="{D2EAB288-5B2A-41B1-8B80-D0AD72606228}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A15C01DA-CA22-47E7-B80F-E804FFA3B0A3}" name="Provider" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{EBCD32C8-5E9A-42BD-9633-EC1421AA1D88}" name="Link" dataDxfId="29" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{A8CFEFEC-060D-4296-A172-5F2F67680987}" name="Costs" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{A365E008-1A8F-40FA-A9F4-EDBEF77C474C}" name="Area" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{8DDE3FAB-CEAF-4DFA-93F0-0A311F6751AC}" name="Description" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{3740D99D-889E-48CC-BF8B-5D272FDB37B0}" name="Creator" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1054,7 +1115,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1087,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1101,16 +1162,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1138,10 +1199,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1159,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B86138A-D965-4750-B9A0-F620EAFBC54F}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,9 +1233,10 @@
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="61.7109375" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1185,13 +1247,16 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1202,60 +1267,84 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1275,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0F533D-B971-4C16-A2B7-1B4CD8F3BF07}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,19 +1396,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1327,285 +1416,286 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{41064110-CD5E-4C90-94CF-5A1DE7AFF22D}"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://www.thewindpower.net/premium_access_en.php" xr:uid="{89ED85F6-6718-44A6-B5C3-C6FAF6B3561B}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{19A9F377-D725-4979-B441-DF28CC638A98}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{8170A6E0-5677-4499-BA38-61983D8038E4}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{C02E84CF-5950-44C8-9A83-EE395A561558}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{B3A4430C-EA97-4936-979C-CD4740692D0C}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{3FBC1FCB-C5A6-4B22-8160-B8FA458EC574}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{F4F491D3-2D52-40FC-9639-A29817F14221}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{97336DD5-5527-40AF-B64F-DF19FC05F1CF}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{19A9F377-D725-4979-B441-DF28CC638A98}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{8170A6E0-5677-4499-BA38-61983D8038E4}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{C02E84CF-5950-44C8-9A83-EE395A561558}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{B3A4430C-EA97-4936-979C-CD4740692D0C}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{3FBC1FCB-C5A6-4B22-8160-B8FA458EC574}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{F4F491D3-2D52-40FC-9639-A29817F14221}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{97336DD5-5527-40AF-B64F-DF19FC05F1CF}"/>
+    <hyperlink ref="B2" r:id="rId9" xr:uid="{80AE7F44-08C0-4D9E-9AAC-F809CE8102BE}"/>
+    <hyperlink ref="B4" r:id="rId10" xr:uid="{EFA46C61-2254-47E7-BD2A-47AB389F6BC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1614,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C401C7E-DA12-4B53-A03F-4F3FE27EAC06}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,41 +1732,41 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1692,6 +1782,59 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A353FA3-859E-4E72-96A7-9D23FAA9BFB3}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{302035A8-8C18-46BC-8D44-45EFE941AACE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C043191A-5493-4900-BD5E-C6179EEACEA1}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1723,55 +1866,55 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Model.xlsx
+++ b/data/Data_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Webapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527A268A-B7E9-4776-AF2C-FFA5C516C607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4592F7F-3DBC-4BE2-BB76-6FE27E36453C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-90" yWindow="120" windowWidth="24180" windowHeight="15250" activeTab="1" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15225" activeTab="1" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
   </bookViews>
   <sheets>
     <sheet name="weather forecast" sheetId="1" r:id="rId1"/>
@@ -280,9 +280,6 @@
     <t>International Energy Agency</t>
   </si>
   <si>
-    <t>Very high spatial (6 km) and temporal (1 hour) resolution, 1995 to 2016, 1 file of 1.5 GB per month, curvilinear map --&gt; requires coordinate transformation, 01/1995 - 08/2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.iea.org/data-and-statistics/data-product/renewables-information </t>
   </si>
   <si>
@@ -394,9 +391,6 @@
     <t>no (latest version 2018)</t>
   </si>
   <si>
-    <t>1940 - present, simple, because 100 m u and v component selectable (https://cds.climate.copernicus.eu/datasets/reanalysis-era5-single-levels?tab=download) as used in forecast, sub-region extraction available, download or API available (request required, e. g. for API key required)</t>
-  </si>
-  <si>
     <t>at WPP level, but data only for windparks &gt; 100 MW ("Actual net generation output (MW) per market time unit and per generation unit of 100 MW or more installed generation capacity."), exportable with FTP Client software FileZilla (https://transparency.entsoe.eu/content/static_content/Static%20content/knowledge%20base/SFTP-Transparency_Docs.html, Hostname: sftp-transparency.entsoe.eu, Port: 22), 12/2014 - present,
 only countries uploading wind energy data are 01/2015: BE, DK, GB. 06/2019: BE, DK, GB. 10/2024: BE, DK, FR, IT</t>
   </si>
@@ -444,6 +438,12 @@
   </si>
   <si>
     <t>for yaw, pitch, stall control, WPPs measure wind speed and direction --&gt; difficult ot obtain, not required, because good weather data available, not useful, because arbitrary locations should be selectable, formerly sensors behind nacelles --&gt; lower wind speed</t>
+  </si>
+  <si>
+    <t>Very high spatial (6 km) and temporal (1 hour) resolution, 1995 to 2016, 1 file of 1.5 GB per month, curvilinear map --&gt; requires coordinate transformation, 01/1995 - 08/2019, spatial resolution: 6 km x 6 km, temporal resolution: hourly</t>
+  </si>
+  <si>
+    <t>1940 - present, simple, because 100 m u and v component selectable (https://cds.climate.copernicus.eu/datasets/reanalysis-era5-single-levels?tab=download) as used in forecast, sub-region extraction available, download or API available (request required, e. g. for API key required), spatial resolution: 31 km x 31 km, temporal resolution: hourly</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,10 +1253,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1270,13 +1270,13 @@
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1290,10 +1290,10 @@
         <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1328,21 +1328,21 @@
         <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1396,13 +1396,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>33</v>
@@ -1416,7 +1416,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>5</v>
@@ -1425,19 +1425,19 @@
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1454,20 +1454,20 @@
         <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
@@ -1475,22 +1475,22 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>37</v>
@@ -1510,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1535,16 +1535,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>37</v>
@@ -1565,20 +1565,20 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1592,13 +1592,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>35</v>
@@ -1618,10 +1618,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>36</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>49</v>
@@ -1641,13 +1641,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>37</v>
@@ -1658,25 +1658,25 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>39</v>
@@ -1757,13 +1757,13 @@
         <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>37</v>
@@ -1814,16 +1814,16 @@
     </row>
     <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>37</v>
@@ -1888,13 +1888,13 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>37</v>
@@ -1902,16 +1902,16 @@
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>37</v>

--- a/data/Data_Model.xlsx
+++ b/data/Data_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Webapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4592F7F-3DBC-4BE2-BB76-6FE27E36453C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEDC39A-E167-4E12-B5EE-741E96A18124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15225" activeTab="1" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="3" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
   </bookViews>
   <sheets>
     <sheet name="weather forecast" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
   <si>
     <t>ECMWF</t>
   </si>
@@ -440,10 +440,28 @@
     <t>for yaw, pitch, stall control, WPPs measure wind speed and direction --&gt; difficult ot obtain, not required, because good weather data available, not useful, because arbitrary locations should be selectable, formerly sensors behind nacelles --&gt; lower wind speed</t>
   </si>
   <si>
-    <t>Very high spatial (6 km) and temporal (1 hour) resolution, 1995 to 2016, 1 file of 1.5 GB per month, curvilinear map --&gt; requires coordinate transformation, 01/1995 - 08/2019, spatial resolution: 6 km x 6 km, temporal resolution: hourly</t>
-  </si>
-  <si>
     <t>1940 - present, simple, because 100 m u and v component selectable (https://cds.climate.copernicus.eu/datasets/reanalysis-era5-single-levels?tab=download) as used in forecast, sub-region extraction available, download or API available (request required, e. g. for API key required), spatial resolution: 31 km x 31 km, temporal resolution: hourly</t>
+  </si>
+  <si>
+    <t>Very high spatial (6 km) and temporal (1 hour) resolution, 1995 to 2016, 1 file of 1.5 GB per month, curvilinear map --&gt; requires coordinate transformation, 01/1995 - 08/2019, spatial resolution: 6 km x 6 km, temporal resolution: hourly; T_2M is 2 m temperature, WS_100 is wind speed in 100 m, ps is not reduced surface pressure</t>
+  </si>
+  <si>
+    <t>https://opendata.dwd.de/climate_environment/REA/</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>wind speed</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://opendata.dwd.de/climate_environment/REA/COSMO_REA6/hourly/2D/T_2M/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://opendata.dwd.de/climate_environment/REA/COSMO_REA6/hourly/2D/PS/ </t>
   </si>
 </sst>
 </file>
@@ -573,7 +591,16 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="42">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -721,75 +748,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4F12E0D7-3F7A-4487-8316-91D8EC14F3DE}" name="Table7" displayName="Table7" ref="A1:E5" totalsRowShown="0" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4F12E0D7-3F7A-4487-8316-91D8EC14F3DE}" name="Table7" displayName="Table7" ref="A1:E5" totalsRowShown="0" dataDxfId="41">
   <autoFilter ref="A1:E5" xr:uid="{4F12E0D7-3F7A-4487-8316-91D8EC14F3DE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{763B3611-6A05-4496-9549-28A9C3FF5F24}" name="Provider" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{DEB2246F-248B-49E0-9C7A-770975C5608B}" name="Link" dataDxfId="36" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{09CDAAEA-1CF4-4A9A-A8FC-9A9CF0E41FB1}" name="Costs" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{FE1B169A-0800-46A4-813B-6C6FDE081AA2}" name="Area" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{3AEBE993-BA1D-4FC9-A845-588AF4BDBC18}" name="Description" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{763B3611-6A05-4496-9549-28A9C3FF5F24}" name="Provider" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{DEB2246F-248B-49E0-9C7A-770975C5608B}" name="Link" dataDxfId="39" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{09CDAAEA-1CF4-4A9A-A8FC-9A9CF0E41FB1}" name="Costs" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{FE1B169A-0800-46A4-813B-6C6FDE081AA2}" name="Area" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{3AEBE993-BA1D-4FC9-A845-588AF4BDBC18}" name="Description" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D2EAB288-5B2A-41B1-8B80-D0AD72606228}" name="Table6" displayName="Table6" ref="A1:F6" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A1:F6" xr:uid="{D2EAB288-5B2A-41B1-8B80-D0AD72606228}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A15C01DA-CA22-47E7-B80F-E804FFA3B0A3}" name="Provider" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{EBCD32C8-5E9A-42BD-9633-EC1421AA1D88}" name="Link" dataDxfId="29" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{A8CFEFEC-060D-4296-A172-5F2F67680987}" name="Costs" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{A365E008-1A8F-40FA-A9F4-EDBEF77C474C}" name="Area" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{8DDE3FAB-CEAF-4DFA-93F0-0A311F6751AC}" name="Description" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{3740D99D-889E-48CC-BF8B-5D272FDB37B0}" name="Creator" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D2EAB288-5B2A-41B1-8B80-D0AD72606228}" name="Table6" displayName="Table6" ref="A1:I6" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:I6" xr:uid="{D2EAB288-5B2A-41B1-8B80-D0AD72606228}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{A15C01DA-CA22-47E7-B80F-E804FFA3B0A3}" name="Provider" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{EBCD32C8-5E9A-42BD-9633-EC1421AA1D88}" name="Link" dataDxfId="32" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{A8CFEFEC-060D-4296-A172-5F2F67680987}" name="Costs" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{A365E008-1A8F-40FA-A9F4-EDBEF77C474C}" name="Area" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{8DDE3FAB-CEAF-4DFA-93F0-0A311F6751AC}" name="Description" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{3740D99D-889E-48CC-BF8B-5D272FDB37B0}" name="Creator" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{82FD5AA3-299B-40D2-B9CB-39F3BA98F999}" name="wind speed" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{847A8843-BE43-4A20-919C-C035AD03837E}" name="temperature" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{1339EAEB-A298-4B0F-9595-87879A755CD8}" name="pressure" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC444647-8C5A-4014-AE07-133383825030}" name="Table5" displayName="Table5" ref="A1:I11" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC444647-8C5A-4014-AE07-133383825030}" name="Table5" displayName="Table5" ref="A1:I11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:I11" xr:uid="{BC444647-8C5A-4014-AE07-133383825030}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C6DB6FE3-7CF0-41B4-8837-8EE64269A96A}" name="Provider" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{C2C7D0D7-2E6E-410A-B5D9-AA0B558DFCDB}" name="Link" dataDxfId="21" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{45957BE7-F087-469E-9D47-F7479C615DA7}" name="Costs" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{894D8DA0-597B-4F85-AA9A-BF5B1496AED1}" name="Description" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{2978BF80-BC4F-404A-986E-EB778660ABF0}" name="with technical specifications (apart capacity)?" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{FE2FC897-3B75-41CF-9127-E40412D7EF33}" name="updated / maintained?" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{CB23B69B-DCC8-4DCA-9CB8-EA96E32FC86B}" name="validated / not public?" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{691D97FA-AEAB-450E-8C34-876FB1F92E8B}" name="area" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{7C588C0F-B30F-4B28-9DBA-196BD6009E77}" name="matching parameters (ID, coordinates) (italic: proprietary Ids)" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{C6DB6FE3-7CF0-41B4-8837-8EE64269A96A}" name="Provider" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{C2C7D0D7-2E6E-410A-B5D9-AA0B558DFCDB}" name="Link" dataDxfId="24" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{45957BE7-F087-469E-9D47-F7479C615DA7}" name="Costs" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{894D8DA0-597B-4F85-AA9A-BF5B1496AED1}" name="Description" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{2978BF80-BC4F-404A-986E-EB778660ABF0}" name="with technical specifications (apart capacity)?" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{FE2FC897-3B75-41CF-9127-E40412D7EF33}" name="updated / maintained?" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{CB23B69B-DCC8-4DCA-9CB8-EA96E32FC86B}" name="validated / not public?" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{691D97FA-AEAB-450E-8C34-876FB1F92E8B}" name="area" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{7C588C0F-B30F-4B28-9DBA-196BD6009E77}" name="matching parameters (ID, coordinates) (italic: proprietary Ids)" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1F3C284E-2D9E-463F-9F2A-6E84937AD136}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1F3C284E-2D9E-463F-9F2A-6E84937AD136}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:E3" xr:uid="{1F3C284E-2D9E-463F-9F2A-6E84937AD136}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3F0D1124-066B-4E3A-A294-E460F30767AF}" name="Provider" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{A7805D07-626E-49E5-8032-3716B8C697BB}" name="Link" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{567AE5C4-1E24-4909-8FB3-954AEDB7D138}" name="Costs" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A80B67ED-EB26-40FB-BD44-C497686319AF}" name="Description" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{8651FCB4-E138-4F7B-B8BE-4DCB18BF623B}" name="area" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{3F0D1124-066B-4E3A-A294-E460F30767AF}" name="Provider" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A7805D07-626E-49E5-8032-3716B8C697BB}" name="Link" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{567AE5C4-1E24-4909-8FB3-954AEDB7D138}" name="Costs" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{A80B67ED-EB26-40FB-BD44-C497686319AF}" name="Description" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{8651FCB4-E138-4F7B-B8BE-4DCB18BF623B}" name="area" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9F9C695A-1B5B-410C-9DC4-82A5FE910542}" name="Table4" displayName="Table4" ref="A1:E4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9F9C695A-1B5B-410C-9DC4-82A5FE910542}" name="Table4" displayName="Table4" ref="A1:E4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:E4" xr:uid="{9F9C695A-1B5B-410C-9DC4-82A5FE910542}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1D4A4FEF-BBEE-4F48-9578-49BD0251EFA7}" name="Provider" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{142F0DEB-E26B-40A1-BB89-BE76E869D9EF}" name="Link" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{CCCE6F29-3203-4C95-B925-4AB3CE399E5B}" name="Costs" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3A25A516-50A1-4ED0-B7A3-6624422041B3}" name="Description" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{29A983F8-3F1D-4082-9FC4-CE78E5963EDB}" name="area" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1D4A4FEF-BBEE-4F48-9578-49BD0251EFA7}" name="Provider" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{142F0DEB-E26B-40A1-BB89-BE76E869D9EF}" name="Link" dataDxfId="6" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{CCCE6F29-3203-4C95-B925-4AB3CE399E5B}" name="Costs" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3A25A516-50A1-4ED0-B7A3-6624422041B3}" name="Description" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{29A983F8-3F1D-4082-9FC4-CE78E5963EDB}" name="area" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1220,23 +1250,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B86138A-D965-4750-B9A0-F620EAFBC54F}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" customWidth="1"/>
+    <col min="6" max="6" width="43" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1255,13 +1288,22 @@
       <c r="F1" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1270,13 +1312,22 @@
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1290,13 +1341,16 @@
         <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1313,8 +1367,11 @@
       <c r="F4" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,8 +1390,11 @@
       <c r="F5" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -1345,17 +1405,22 @@
         <v>106</v>
       </c>
       <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{521F62D8-142E-4998-BD2A-D927ED8EB351}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{5AB59A48-E9C0-4612-B80D-DF91AC321927}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{D705CCB2-FA26-47B3-AC56-16EB0A772224}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{0DB67E33-255F-404A-B545-E9BE58AC0ACB}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{5AB59A48-E9C0-4612-B80D-DF91AC321927}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{D705CCB2-FA26-47B3-AC56-16EB0A772224}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{0DB67E33-255F-404A-B545-E9BE58AC0ACB}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{E584F813-AB09-4A3B-A8FE-F8315B7E9F42}"/>
+    <hyperlink ref="H2" r:id="rId5" xr:uid="{E6FCFA98-1E81-43BD-A5E2-01DD9ED90DB8}"/>
+    <hyperlink ref="I2" r:id="rId6" xr:uid="{931F0448-216F-482A-9D1B-D59C42A78A86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1704,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C401C7E-DA12-4B53-A03F-4F3FE27EAC06}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Data_Model.xlsx
+++ b/data/Data_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Webapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEDC39A-E167-4E12-B5EE-741E96A18124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05C57BF-C754-4D90-B4C0-25B7F68955EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="3" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
   </bookViews>
   <sheets>
     <sheet name="weather forecast" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="121">
   <si>
     <t>ECMWF</t>
   </si>
@@ -437,9 +437,6 @@
     <t>data from WPP sensors</t>
   </si>
   <si>
-    <t>for yaw, pitch, stall control, WPPs measure wind speed and direction --&gt; difficult ot obtain, not required, because good weather data available, not useful, because arbitrary locations should be selectable, formerly sensors behind nacelles --&gt; lower wind speed</t>
-  </si>
-  <si>
     <t>1940 - present, simple, because 100 m u and v component selectable (https://cds.climate.copernicus.eu/datasets/reanalysis-era5-single-levels?tab=download) as used in forecast, sub-region extraction available, download or API available (request required, e. g. for API key required), spatial resolution: 31 km x 31 km, temporal resolution: hourly</t>
   </si>
   <si>
@@ -462,6 +459,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://opendata.dwd.de/climate_environment/REA/COSMO_REA6/hourly/2D/PS/ </t>
+  </si>
+  <si>
+    <t>https://www.eex-transparency.com/power/de/production/usage</t>
+  </si>
+  <si>
+    <t>"Power Production per Unit", not accessible with bulk download or API, no additional power plant information, not even location, only for a very small past time period</t>
+  </si>
+  <si>
+    <t>EEX Transparency Platform</t>
+  </si>
+  <si>
+    <t>Eurostag</t>
+  </si>
+  <si>
+    <t>not at WPP level, only at country lvel; monthly aggregated</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/de/data/database</t>
+  </si>
+  <si>
+    <t>for yaw, pitch, stall control, WPPs measure wind speed and direction --&gt; difficult ot obtain, not required, because good weather data available, not useful, because arbitrary locations should be selectable, formerly sensors behind nacelles --&gt; lower wind speed, existence of these data confirmed in [MAR2018]</t>
   </si>
 </sst>
 </file>
@@ -635,15 +653,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -660,6 +669,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -771,55 +789,55 @@
     <tableColumn id="4" xr3:uid="{A365E008-1A8F-40FA-A9F4-EDBEF77C474C}" name="Area" dataDxfId="30"/>
     <tableColumn id="5" xr3:uid="{8DDE3FAB-CEAF-4DFA-93F0-0A311F6751AC}" name="Description" dataDxfId="29"/>
     <tableColumn id="6" xr3:uid="{3740D99D-889E-48CC-BF8B-5D272FDB37B0}" name="Creator" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{82FD5AA3-299B-40D2-B9CB-39F3BA98F999}" name="wind speed" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{847A8843-BE43-4A20-919C-C035AD03837E}" name="temperature" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{1339EAEB-A298-4B0F-9595-87879A755CD8}" name="pressure" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{82FD5AA3-299B-40D2-B9CB-39F3BA98F999}" name="wind speed" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{847A8843-BE43-4A20-919C-C035AD03837E}" name="temperature" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{1339EAEB-A298-4B0F-9595-87879A755CD8}" name="pressure" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC444647-8C5A-4014-AE07-133383825030}" name="Table5" displayName="Table5" ref="A1:I11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC444647-8C5A-4014-AE07-133383825030}" name="Table5" displayName="Table5" ref="A1:I11" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:I11" xr:uid="{BC444647-8C5A-4014-AE07-133383825030}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C6DB6FE3-7CF0-41B4-8837-8EE64269A96A}" name="Provider" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{C2C7D0D7-2E6E-410A-B5D9-AA0B558DFCDB}" name="Link" dataDxfId="24" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{45957BE7-F087-469E-9D47-F7479C615DA7}" name="Costs" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{894D8DA0-597B-4F85-AA9A-BF5B1496AED1}" name="Description" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{2978BF80-BC4F-404A-986E-EB778660ABF0}" name="with technical specifications (apart capacity)?" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{FE2FC897-3B75-41CF-9127-E40412D7EF33}" name="updated / maintained?" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{CB23B69B-DCC8-4DCA-9CB8-EA96E32FC86B}" name="validated / not public?" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{691D97FA-AEAB-450E-8C34-876FB1F92E8B}" name="area" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{7C588C0F-B30F-4B28-9DBA-196BD6009E77}" name="matching parameters (ID, coordinates) (italic: proprietary Ids)" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{C6DB6FE3-7CF0-41B4-8837-8EE64269A96A}" name="Provider" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{C2C7D0D7-2E6E-410A-B5D9-AA0B558DFCDB}" name="Link" dataDxfId="21" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{45957BE7-F087-469E-9D47-F7479C615DA7}" name="Costs" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{894D8DA0-597B-4F85-AA9A-BF5B1496AED1}" name="Description" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{2978BF80-BC4F-404A-986E-EB778660ABF0}" name="with technical specifications (apart capacity)?" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{FE2FC897-3B75-41CF-9127-E40412D7EF33}" name="updated / maintained?" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{CB23B69B-DCC8-4DCA-9CB8-EA96E32FC86B}" name="validated / not public?" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{691D97FA-AEAB-450E-8C34-876FB1F92E8B}" name="area" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{7C588C0F-B30F-4B28-9DBA-196BD6009E77}" name="matching parameters (ID, coordinates) (italic: proprietary Ids)" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1F3C284E-2D9E-463F-9F2A-6E84937AD136}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:E3" xr:uid="{1F3C284E-2D9E-463F-9F2A-6E84937AD136}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1F3C284E-2D9E-463F-9F2A-6E84937AD136}" name="Table3" displayName="Table3" ref="A1:E5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:E5" xr:uid="{1F3C284E-2D9E-463F-9F2A-6E84937AD136}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3F0D1124-066B-4E3A-A294-E460F30767AF}" name="Provider" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{A7805D07-626E-49E5-8032-3716B8C697BB}" name="Link" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{567AE5C4-1E24-4909-8FB3-954AEDB7D138}" name="Costs" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{A80B67ED-EB26-40FB-BD44-C497686319AF}" name="Description" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{8651FCB4-E138-4F7B-B8BE-4DCB18BF623B}" name="area" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{3F0D1124-066B-4E3A-A294-E460F30767AF}" name="Provider" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{A7805D07-626E-49E5-8032-3716B8C697BB}" name="Link" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{567AE5C4-1E24-4909-8FB3-954AEDB7D138}" name="Costs" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A80B67ED-EB26-40FB-BD44-C497686319AF}" name="Description" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{8651FCB4-E138-4F7B-B8BE-4DCB18BF623B}" name="area" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9F9C695A-1B5B-410C-9DC4-82A5FE910542}" name="Table4" displayName="Table4" ref="A1:E4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9F9C695A-1B5B-410C-9DC4-82A5FE910542}" name="Table4" displayName="Table4" ref="A1:E4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E4" xr:uid="{9F9C695A-1B5B-410C-9DC4-82A5FE910542}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1D4A4FEF-BBEE-4F48-9578-49BD0251EFA7}" name="Provider" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{142F0DEB-E26B-40A1-BB89-BE76E869D9EF}" name="Link" dataDxfId="6" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{CCCE6F29-3203-4C95-B925-4AB3CE399E5B}" name="Costs" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{3A25A516-50A1-4ED0-B7A3-6624422041B3}" name="Description" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{29A983F8-3F1D-4082-9FC4-CE78E5963EDB}" name="area" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{1D4A4FEF-BBEE-4F48-9578-49BD0251EFA7}" name="Provider" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{142F0DEB-E26B-40A1-BB89-BE76E869D9EF}" name="Link" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{CCCE6F29-3203-4C95-B925-4AB3CE399E5B}" name="Costs" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3A25A516-50A1-4ED0-B7A3-6624422041B3}" name="Description" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{29A983F8-3F1D-4082-9FC4-CE78E5963EDB}" name="area" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1144,19 +1162,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DA9FC3-3033-41B6-8D50-FCDEBAA0FA29}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.81640625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="65.140625" customWidth="1"/>
+    <col min="5" max="5" width="65.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1173,7 +1191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1205,7 +1223,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1236,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1253,23 +1271,23 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="62.26953125" customWidth="1"/>
     <col min="6" max="6" width="43" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1289,21 +1307,21 @@
         <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1312,7 +1330,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>95</v>
@@ -1321,13 +1339,13 @@
         <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1341,7 +1359,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>96</v>
@@ -1350,7 +1368,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1371,7 +1389,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1394,7 +1412,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -1402,7 +1420,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1430,24 +1448,24 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="56.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="56.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="48" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="89" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1476,7 +1494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1505,7 +1523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1535,7 +1553,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1564,7 +1582,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1589,7 +1607,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1618,7 +1636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -1646,7 +1664,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1672,7 +1690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1695,7 +1713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1721,7 +1739,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -1767,23 +1785,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C401C7E-DA12-4B53-A03F-4F3FE27EAC06}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="193.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="31.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="193.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1800,7 +1818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>55</v>
       </c>
@@ -1817,7 +1835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -1832,6 +1850,40 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1854,15 +1906,15 @@
       <selection activeCell="D2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1877,7 +1929,7 @@
       </c>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
@@ -1907,17 +1959,17 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="121.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="121.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1934,7 +1986,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -1951,7 +2003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -1965,7 +2017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>81</v>
       </c>

--- a/data/Data_Model.xlsx
+++ b/data/Data_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Webapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05C57BF-C754-4D90-B4C0-25B7F68955EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24952B7E-0E10-4411-BB23-B5E2554CD8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
+    <workbookView xWindow="20" yWindow="990" windowWidth="23980" windowHeight="15010" activeTab="3" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
   </bookViews>
   <sheets>
     <sheet name="weather forecast" sheetId="1" r:id="rId1"/>
@@ -391,95 +391,105 @@
     <t>no (latest version 2018)</t>
   </si>
   <si>
-    <t>at WPP level, but data only for windparks &gt; 100 MW ("Actual net generation output (MW) per market time unit and per generation unit of 100 MW or more installed generation capacity."), exportable with FTP Client software FileZilla (https://transparency.entsoe.eu/content/static_content/Static%20content/knowledge%20base/SFTP-Transparency_Docs.html, Hostname: sftp-transparency.entsoe.eu, Port: 22), 12/2014 - present,
+    <t>no bulk download, P &gt; 100 kW</t>
+  </si>
+  <si>
+    <t>only for DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wiki.openstreetmap.org/wiki/Tag%3Apower%3Dgenerator </t>
+  </si>
+  <si>
+    <t>Hans-Ertel-Zentrum für Wetterforschung (HErZ), Deutscher Wetterdienst (DWD)</t>
+  </si>
+  <si>
+    <t>European Centre for Medium-Range Weather Forecasts (ECMWF) in the framework of Copernicus Climate Change Service (C3S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NASA (National Aeronautics and Space Administration) via the Global Modeling and Assimilation Office (GMAO) </t>
+  </si>
+  <si>
+    <t>National Centers for Environmental Prediction (NCEP) and National Center for Atmospheric Research (NCAR)</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thewindpower.net/store_continent_en.php?id_zone=1001 </t>
+  </si>
+  <si>
+    <t>premium access until 04/12/24, doesn't enable to download data, only read; this would require global package für 800 € (without updates); has the number of turbines per production unit --&gt; reconstruction of generation units, used by CDS to calculate capacity factors (https://cds.climate.copernicus.eu/datasets/sis-energy-pecd?tab=overview)</t>
+  </si>
+  <si>
+    <t>Open Energy Platform</t>
+  </si>
+  <si>
+    <t>general list with turbine types and associated specifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openenergyplatform.org/dataedit/view/supply/wind_turbine_library </t>
+  </si>
+  <si>
+    <t>data from WPP sensors</t>
+  </si>
+  <si>
+    <t>1940 - present, simple, because 100 m u and v component selectable (https://cds.climate.copernicus.eu/datasets/reanalysis-era5-single-levels?tab=download) as used in forecast, sub-region extraction available, download or API available (request required, e. g. for API key required), spatial resolution: 31 km x 31 km, temporal resolution: hourly</t>
+  </si>
+  <si>
+    <t>Very high spatial (6 km) and temporal (1 hour) resolution, 1995 to 2016, 1 file of 1.5 GB per month, curvilinear map --&gt; requires coordinate transformation, 01/1995 - 08/2019, spatial resolution: 6 km x 6 km, temporal resolution: hourly; T_2M is 2 m temperature, WS_100 is wind speed in 100 m, ps is not reduced surface pressure</t>
+  </si>
+  <si>
+    <t>https://opendata.dwd.de/climate_environment/REA/</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>wind speed</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://opendata.dwd.de/climate_environment/REA/COSMO_REA6/hourly/2D/T_2M/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://opendata.dwd.de/climate_environment/REA/COSMO_REA6/hourly/2D/PS/ </t>
+  </si>
+  <si>
+    <t>https://www.eex-transparency.com/power/de/production/usage</t>
+  </si>
+  <si>
+    <t>"Power Production per Unit", not accessible with bulk download or API, no additional power plant information, not even location, only for a very small past time period</t>
+  </si>
+  <si>
+    <t>EEX Transparency Platform</t>
+  </si>
+  <si>
+    <t>Eurostag</t>
+  </si>
+  <si>
+    <t>not at WPP level, only at country lvel; monthly aggregated</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/de/data/database</t>
+  </si>
+  <si>
+    <t>for yaw, pitch, stall control, WPPs measure wind speed and direction --&gt; difficult ot obtain, not required, because good weather data available, not useful, because arbitrary locations should be selectable, formerly sensors behind nacelles --&gt; lower wind speed, existence of these data confirmed in [MAR2018]. "Each turbine also hosts
+several sensors. An anemometer and the wind direction sensor
+on the nacelle continuously transmit observed wind speed and
+direction to end systems. Sensors such as tachometers and
+energy meters are also hosted for measuring other performance
+parameters of the turbines.
+The metmasts are measurement towers, one or more of which
+are erected at strategic locations at the site. They have high
+fidelity sensors for measuring the meteorological conditions
+of the site. These include sensors at various heights for wind
+speed, wind direction, temperature, pressure and humidity." [VIN2007]</t>
+  </si>
+  <si>
+    <t>at WPP level, but data only for windparks &gt; 100 MW ("Actual net generation output (MW) per market time unit and per generation unit of 100 MW or more installed generation capacity."), exportable with FTP Client software FileZilla (https://transparency.entsoe.eu/content/static_content/Static%20content/knowledge%20base/SFTP-Transparency_Docs.html, Hostname: sftp-transparency.entsoe.eu, Port: 22, Passwort: Vwf28i989*4.?pX), 12/2014 - present,
 only countries uploading wind energy data are 01/2015: BE, DK, GB. 06/2019: BE, DK, GB. 10/2024: BE, DK, FR, IT</t>
-  </si>
-  <si>
-    <t>no bulk download, P &gt; 100 kW</t>
-  </si>
-  <si>
-    <t>only for DK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://wiki.openstreetmap.org/wiki/Tag%3Apower%3Dgenerator </t>
-  </si>
-  <si>
-    <t>Hans-Ertel-Zentrum für Wetterforschung (HErZ), Deutscher Wetterdienst (DWD)</t>
-  </si>
-  <si>
-    <t>European Centre for Medium-Range Weather Forecasts (ECMWF) in the framework of Copernicus Climate Change Service (C3S)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NASA (National Aeronautics and Space Administration) via the Global Modeling and Assimilation Office (GMAO) </t>
-  </si>
-  <si>
-    <t>National Centers for Environmental Prediction (NCEP) and National Center for Atmospheric Research (NCAR)</t>
-  </si>
-  <si>
-    <t>Creator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thewindpower.net/store_continent_en.php?id_zone=1001 </t>
-  </si>
-  <si>
-    <t>premium access until 04/12/24, doesn't enable to download data, only read; this would require global package für 800 € (without updates); has the number of turbines per production unit --&gt; reconstruction of generation units, used by CDS to calculate capacity factors (https://cds.climate.copernicus.eu/datasets/sis-energy-pecd?tab=overview)</t>
-  </si>
-  <si>
-    <t>Open Energy Platform</t>
-  </si>
-  <si>
-    <t>general list with turbine types and associated specifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://openenergyplatform.org/dataedit/view/supply/wind_turbine_library </t>
-  </si>
-  <si>
-    <t>data from WPP sensors</t>
-  </si>
-  <si>
-    <t>1940 - present, simple, because 100 m u and v component selectable (https://cds.climate.copernicus.eu/datasets/reanalysis-era5-single-levels?tab=download) as used in forecast, sub-region extraction available, download or API available (request required, e. g. for API key required), spatial resolution: 31 km x 31 km, temporal resolution: hourly</t>
-  </si>
-  <si>
-    <t>Very high spatial (6 km) and temporal (1 hour) resolution, 1995 to 2016, 1 file of 1.5 GB per month, curvilinear map --&gt; requires coordinate transformation, 01/1995 - 08/2019, spatial resolution: 6 km x 6 km, temporal resolution: hourly; T_2M is 2 m temperature, WS_100 is wind speed in 100 m, ps is not reduced surface pressure</t>
-  </si>
-  <si>
-    <t>https://opendata.dwd.de/climate_environment/REA/</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>wind speed</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://opendata.dwd.de/climate_environment/REA/COSMO_REA6/hourly/2D/T_2M/ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://opendata.dwd.de/climate_environment/REA/COSMO_REA6/hourly/2D/PS/ </t>
-  </si>
-  <si>
-    <t>https://www.eex-transparency.com/power/de/production/usage</t>
-  </si>
-  <si>
-    <t>"Power Production per Unit", not accessible with bulk download or API, no additional power plant information, not even location, only for a very small past time period</t>
-  </si>
-  <si>
-    <t>EEX Transparency Platform</t>
-  </si>
-  <si>
-    <t>Eurostag</t>
-  </si>
-  <si>
-    <t>not at WPP level, only at country lvel; monthly aggregated</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/eurostat/de/data/database</t>
-  </si>
-  <si>
-    <t>for yaw, pitch, stall control, WPPs measure wind speed and direction --&gt; difficult ot obtain, not required, because good weather data available, not useful, because arbitrary locations should be selectable, formerly sensors behind nacelles --&gt; lower wind speed, existence of these data confirmed in [MAR2018]</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DA9FC3-3033-41B6-8D50-FCDEBAA0FA29}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1271,7 +1281,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1304,16 +1314,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1321,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1330,19 +1340,19 @@
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1359,10 +1369,10 @@
         <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1383,7 +1393,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1406,21 +1416,21 @@
         <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1499,7 +1509,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>5</v>
@@ -1558,13 +1568,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>69</v>
@@ -1675,7 +1685,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>70</v>
@@ -1750,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>89</v>
@@ -1787,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C401C7E-DA12-4B53-A03F-4F3FE27EAC06}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1829,7 +1839,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>39</v>
@@ -1854,16 +1864,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>39</v>
@@ -1871,16 +1881,16 @@
     </row>
     <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>39</v>
@@ -1931,16 +1941,16 @@
     </row>
     <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Model.xlsx
+++ b/data/Data_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Webapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24952B7E-0E10-4411-BB23-B5E2554CD8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8E516A-2146-4CE9-BA86-E2A8753C64F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="990" windowWidth="23980" windowHeight="15010" activeTab="3" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
+    <workbookView xWindow="11910" yWindow="0" windowWidth="12180" windowHeight="15370" activeTab="1" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
   </bookViews>
   <sheets>
     <sheet name="weather forecast" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
   <si>
     <t>ECMWF</t>
   </si>
@@ -437,24 +437,6 @@
   </si>
   <si>
     <t>Very high spatial (6 km) and temporal (1 hour) resolution, 1995 to 2016, 1 file of 1.5 GB per month, curvilinear map --&gt; requires coordinate transformation, 01/1995 - 08/2019, spatial resolution: 6 km x 6 km, temporal resolution: hourly; T_2M is 2 m temperature, WS_100 is wind speed in 100 m, ps is not reduced surface pressure</t>
-  </si>
-  <si>
-    <t>https://opendata.dwd.de/climate_environment/REA/</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>wind speed</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://opendata.dwd.de/climate_environment/REA/COSMO_REA6/hourly/2D/T_2M/ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://opendata.dwd.de/climate_environment/REA/COSMO_REA6/hourly/2D/PS/ </t>
   </si>
   <si>
     <t>https://www.eex-transparency.com/power/de/production/usage</t>
@@ -586,7 +568,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -613,13 +595,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="39">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -753,15 +738,6 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -776,32 +752,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4F12E0D7-3F7A-4487-8316-91D8EC14F3DE}" name="Table7" displayName="Table7" ref="A1:E5" totalsRowShown="0" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4F12E0D7-3F7A-4487-8316-91D8EC14F3DE}" name="Table7" displayName="Table7" ref="A1:E5" totalsRowShown="0" dataDxfId="38">
   <autoFilter ref="A1:E5" xr:uid="{4F12E0D7-3F7A-4487-8316-91D8EC14F3DE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{763B3611-6A05-4496-9549-28A9C3FF5F24}" name="Provider" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{DEB2246F-248B-49E0-9C7A-770975C5608B}" name="Link" dataDxfId="39" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{09CDAAEA-1CF4-4A9A-A8FC-9A9CF0E41FB1}" name="Costs" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{FE1B169A-0800-46A4-813B-6C6FDE081AA2}" name="Area" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{3AEBE993-BA1D-4FC9-A845-588AF4BDBC18}" name="Description" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{763B3611-6A05-4496-9549-28A9C3FF5F24}" name="Provider" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{DEB2246F-248B-49E0-9C7A-770975C5608B}" name="Link" dataDxfId="36" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{09CDAAEA-1CF4-4A9A-A8FC-9A9CF0E41FB1}" name="Costs" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{FE1B169A-0800-46A4-813B-6C6FDE081AA2}" name="Area" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{3AEBE993-BA1D-4FC9-A845-588AF4BDBC18}" name="Description" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D2EAB288-5B2A-41B1-8B80-D0AD72606228}" name="Table6" displayName="Table6" ref="A1:I6" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:I6" xr:uid="{D2EAB288-5B2A-41B1-8B80-D0AD72606228}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A15C01DA-CA22-47E7-B80F-E804FFA3B0A3}" name="Provider" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{EBCD32C8-5E9A-42BD-9633-EC1421AA1D88}" name="Link" dataDxfId="32" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{A8CFEFEC-060D-4296-A172-5F2F67680987}" name="Costs" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{A365E008-1A8F-40FA-A9F4-EDBEF77C474C}" name="Area" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{8DDE3FAB-CEAF-4DFA-93F0-0A311F6751AC}" name="Description" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{3740D99D-889E-48CC-BF8B-5D272FDB37B0}" name="Creator" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{82FD5AA3-299B-40D2-B9CB-39F3BA98F999}" name="wind speed" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{847A8843-BE43-4A20-919C-C035AD03837E}" name="temperature" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{1339EAEB-A298-4B0F-9595-87879A755CD8}" name="pressure" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D2EAB288-5B2A-41B1-8B80-D0AD72606228}" name="Table6" displayName="Table6" ref="A1:F6" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:F6" xr:uid="{D2EAB288-5B2A-41B1-8B80-D0AD72606228}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A15C01DA-CA22-47E7-B80F-E804FFA3B0A3}" name="Provider" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{EBCD32C8-5E9A-42BD-9633-EC1421AA1D88}" name="Link" dataDxfId="29" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{A8CFEFEC-060D-4296-A172-5F2F67680987}" name="Costs" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{A365E008-1A8F-40FA-A9F4-EDBEF77C474C}" name="Area" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{8DDE3FAB-CEAF-4DFA-93F0-0A311F6751AC}" name="Description" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{3740D99D-889E-48CC-BF8B-5D272FDB37B0}" name="Creator" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1278,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B86138A-D965-4750-B9A0-F620EAFBC54F}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1297,7 +1270,7 @@
     <col min="9" max="9" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1316,22 +1289,13 @@
       <c r="F1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1345,17 +1309,8 @@
       <c r="F2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1374,11 +1329,8 @@
       <c r="F3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1395,11 +1347,8 @@
       <c r="F4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1418,11 +1367,8 @@
       <c r="F5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -1430,25 +1376,20 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{5AB59A48-E9C0-4612-B80D-DF91AC321927}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{D705CCB2-FA26-47B3-AC56-16EB0A772224}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{0DB67E33-255F-404A-B545-E9BE58AC0ACB}"/>
-    <hyperlink ref="G2" r:id="rId4" xr:uid="{E584F813-AB09-4A3B-A8FE-F8315B7E9F42}"/>
-    <hyperlink ref="H2" r:id="rId5" xr:uid="{E6FCFA98-1E81-43BD-A5E2-01DD9ED90DB8}"/>
-    <hyperlink ref="I2" r:id="rId6" xr:uid="{931F0448-216F-482A-9D1B-D59C42A78A86}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{E3C23749-AAFA-49ED-B8CA-511CCC8986C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1797,7 +1738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C401C7E-DA12-4B53-A03F-4F3FE27EAC06}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1839,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>39</v>
@@ -1864,16 +1805,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>39</v>
@@ -1881,16 +1822,16 @@
     </row>
     <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>39</v>

--- a/data/Data_Model.xlsx
+++ b/data/Data_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Webapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8E516A-2146-4CE9-BA86-E2A8753C64F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06453585-B795-4F58-89B9-FA18E7448F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="0" windowWidth="12180" windowHeight="15370" activeTab="1" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{2A577089-14E3-46C5-B0F5-6C47B76D92C7}"/>
   </bookViews>
   <sheets>
     <sheet name="weather forecast" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -593,9 +593,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1254,7 +1251,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1291,7 +1288,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
